--- a/.gitignore/speedCalculations.xlsx
+++ b/.gitignore/speedCalculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thorn_000\Repositories\Project-2\.gitignore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F15786BA-D197-4C31-913F-8077917CA015}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F324C3-AB53-4CCE-9CFA-DE6EA3138DFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4920" xr2:uid="{6B85598E-705B-45B0-96FC-6A8897835014}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Check-Point</t>
   </si>
@@ -34,6 +39,9 @@
   </si>
   <si>
     <t>% of Top Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -146,7 +154,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -181,7 +189,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$19</c:f>
+              <c:f>Sheet1!$B$7:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -241,7 +249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$19</c:f>
+              <c:f>Sheet1!$C$7:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1048,13 +1056,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1380,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF98065-CD85-4681-89DF-FA029F1A75BC}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,219 +1405,314 @@
     <col min="19" max="19" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>(F3/F2)*60</f>
+        <v>192.97297297297297</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C7" s="1">
         <v>171</v>
       </c>
-      <c r="D3" s="1">
-        <f>(C3/200)*100</f>
+      <c r="D7" s="1">
+        <f>(C7/200)*100</f>
         <v>85.5</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="F7">
+        <f>192.972973*(D7/100)</f>
+        <v>164.991891915</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C8" s="1">
         <v>84</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D19" si="0">(C4/200)*100</f>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:D23" si="0">(C8/200)*100</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="F8">
+        <f t="shared" ref="F8:F23" si="1">192.972973*(D8/100)</f>
+        <v>81.048648659999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C9" s="1">
         <v>171</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>164.991891915</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C10" s="1">
         <v>103</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>51.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>99.381081094999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C11" s="1">
         <v>56</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>28.000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>54.032432440000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C12" s="1">
         <v>39</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>37.629729734999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C13" s="1">
         <v>78</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>75.259459469999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C14" s="1">
         <v>73</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>70.435135145000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C15" s="1">
         <v>165</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>159.20270272499999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C16" s="1">
         <v>175</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>168.85135137500001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C17" s="1">
         <v>112</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>56.000000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>108.06486488</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C18" s="1">
         <v>107</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>103.24054055500001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C19" s="1">
         <v>139</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>69.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>134.116216235</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C20" s="1">
         <v>106</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>102.27567569</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C21" s="1">
         <v>67</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>64.645945955000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C22" s="1">
         <v>73</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>70.435135145000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C23" s="1">
         <v>71</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>35.5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>68.505405414999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f>SUM(F7:F23)/17</f>
+        <v>101.59459460882351</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
